--- a/ConceptMap-R5-DeviceDefinition-elements-for-R4-DeviceDefinition.xlsx
+++ b/ConceptMap-R5-DeviceDefinition-elements-for-R4-DeviceDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="215">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.7510469-06:00</t>
+    <t>2026-02-17T14:42:27.1694656-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -397,24 +397,6 @@
   </si>
   <si>
     <t>DeviceDefinition.packaging.udiDeviceIdentifier</t>
-  </si>
-  <si>
-    <t>DeviceDefinition.packaging.udiDeviceIdentifier.deviceIdentifier</t>
-  </si>
-  <si>
-    <t>DeviceDefinition.packaging.udiDeviceIdentifier.issuer</t>
-  </si>
-  <si>
-    <t>DeviceDefinition.packaging.udiDeviceIdentifier.jurisdiction</t>
-  </si>
-  <si>
-    <t>DeviceDefinition.packaging.udiDeviceIdentifier.marketDistribution</t>
-  </si>
-  <si>
-    <t>DeviceDefinition.packaging.udiDeviceIdentifier.marketDistribution.marketPeriod</t>
-  </si>
-  <si>
-    <t>DeviceDefinition.packaging.udiDeviceIdentifier.marketDistribution.subJurisdiction</t>
   </si>
   <si>
     <t>DeviceDefinition.packaging.packaging</t>
@@ -932,7 +914,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1560,7 +1542,7 @@
         <v>128</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -1573,280 +1555,280 @@
         <v>129</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="E50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="E51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="E52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="E53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="E54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="E58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="E62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="E63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="E64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="E67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="E68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="E69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -1856,75 +1838,75 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="E71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>177</v>
+        <v>32</v>
       </c>
       <c r="E72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="E73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="E74" s="2"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>186</v>
+        <v>32</v>
       </c>
       <c r="E75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -1934,10 +1916,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -1947,10 +1929,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -1960,10 +1942,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -1973,10 +1955,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -1986,10 +1968,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -1999,10 +1981,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -2012,10 +1994,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -2025,10 +2007,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -2038,10 +2020,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -2051,10 +2033,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -2064,94 +2046,16 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
         <v>32</v>
       </c>
       <c r="E87" s="2"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="E93" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
